--- a/forms/vwr_enrichment_ppe.xlsx
+++ b/forms/vwr_enrichment_ppe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3bd2985b379b5a/Documents/Autofill/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D3C4CE23D92D5FC25DBB0D36D0B730A67E655197" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D3C4CE23D92D5FC25DBB0D36D0B730A67E655197" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73242C9C-8435-402F-9562-360408794463}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2850" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Mandatory</t>
   </si>
@@ -341,51 +341,12 @@
 ambient
 etc</t>
   </si>
-  <si>
-    <t>column H, remove all special character, limited to 30 characters</t>
-  </si>
-  <si>
-    <t>column G, remove all special characte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product name (column F) + MP Biomedical </t>
-  </si>
-  <si>
-    <t>column AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect value in cloumn G, if it mention it is recombinant, then fill in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">detect name, If name include protein, then it is protein, if it is enzyme, then enzyme, same thing for peptide </t>
-  </si>
-  <si>
-    <t>column AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column AL, </t>
-  </si>
-  <si>
-    <t>column BW</t>
-  </si>
-  <si>
-    <t>column AX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column Cl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">column AK </t>
-  </si>
-  <si>
-    <t>PRMS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +399,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -553,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -600,17 +567,18 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +797,7 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,11 +841,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,72 +1125,44 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK4" s="16" t="s">
-        <v>84</v>
-      </c>
+    <row r="4" spans="1:37" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
     </row>
     <row r="5" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
